--- a/Оценка трудозатрат Use Case.xlsx
+++ b/Оценка трудозатрат Use Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ВГУ\Магистратура\Проектный менеджмент\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0AB136-BD0F-4D0D-904C-CA2BEBFB1B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B5A658-A106-47B5-9C47-52F785983C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,50 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Вывод:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Ранжировка экспертов</t>
-  </si>
-  <si>
-    <t>Также нет связных рангов =&gt; 1-ый случай</t>
-  </si>
-  <si>
-    <t>Сумма рангов</t>
-  </si>
-  <si>
-    <t>Оклонения от среднего</t>
-  </si>
-  <si>
-    <t>Оклонения от среднего ^2</t>
-  </si>
-  <si>
-    <t>Ср</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Мнения наполовину согласованны</t>
-  </si>
-  <si>
-    <t>Хи-квадрат рачётный</t>
-  </si>
-  <si>
-    <t>Хи-квадрат табличный</t>
-  </si>
-  <si>
-    <t>Хи-расчётный &gt; Хи-табличный, значит W значимо отличается от нуля</t>
-  </si>
-  <si>
     <t>UC</t>
   </si>
   <si>
@@ -106,6 +67,12 @@
   </si>
   <si>
     <t>UC-10</t>
+  </si>
+  <si>
+    <t>Эксперты</t>
+  </si>
+  <si>
+    <t>Оценки от 1 до 5</t>
   </si>
 </sst>
 </file>
@@ -136,21 +103,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,74 +134,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,39 +150,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,265 +463,166 @@
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <f>SUM(E5:G5)</f>
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <f>H5-$H$15</f>
-        <v>-11.5</v>
-      </c>
-      <c r="J5" s="3">
-        <f>I5^2</f>
-        <v>132.25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <f>SUM(E6:G6)</f>
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" ref="I6:I14" si="0">H6-$H$15</f>
-        <v>-12.5</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" ref="J6:J16" si="1">I6^2</f>
-        <v>156.25</v>
-      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <f>SUM(E7:G7)</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.5</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>42.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <f>SUM(E8:G8)</f>
-        <v>11</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>-5.5</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>30.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3">
-        <f>SUM(E9:G9)</f>
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>132.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
-        <f>SUM(E10:G10)</f>
-        <v>22</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>30.25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <f>SUM(E11:G11)</f>
-        <v>17</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -837,171 +631,128 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <f>SUM(E12:G12)</f>
-        <v>16</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3">
-        <f>SUM(E13:G13)</f>
-        <v>23</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>42.25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>9</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <f>SUM(E14:G14)</f>
-        <v>29</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>156.25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <f>(C14+1)*G4/2</f>
-        <v>16.5</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <f>SUM(J5:J14)</f>
-        <v>722.5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <f>12/(G4^2*(C14^3-C14))*J15</f>
-        <v>0.97306397306397308</v>
-      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="2"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22">
-        <f>E18*G4*(C14-1)</f>
-        <v>26.272727272727273</v>
-      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23">
-        <f>CHIINV(0.05,C14-1)</f>
-        <v>16.918977604620451</v>
-      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1009,18 +760,18 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E25:I25"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
